--- a/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200224.xlsx
+++ b/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200224.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="14220" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10391,12 +10391,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -10458,8 +10458,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10472,7 +10473,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -10495,50 +10547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -10555,20 +10563,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -10577,9 +10571,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10594,16 +10587,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10630,7 +10630,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10642,7 +10690,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10660,13 +10744,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10678,37 +10786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10720,97 +10804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10821,15 +10821,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10859,11 +10850,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10907,17 +10911,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10927,10 +10927,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10939,133 +10939,133 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11101,17 +11101,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11438,8 +11438,8 @@
   <sheetPr/>
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
@@ -11874,7 +11874,7 @@
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
@@ -12802,11 +12802,14 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576">
-      <formula1>INDIRECT($F14)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AC3 AC4 AC5 AC6 AC7 AC8 AC9 AC10 AC11 AC12 AC13:AC1048576">
+      <formula1>"未核查,已核查"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 AE2 AK2 AA3 AE3 AK3 AA4 AE4 AK4 AA5 AE5 AK5 AA6 AE6 AK6 AA7 AE7 AK7 AA8 AE8 AK8 AA9 AE9 AK9 AA10 AE10 AK10 AA11 AE11 AK11 AA12 AE12 AK12 AA13:AA14 AA15:AA1048576 AE13:AE1048576 AK13:AK1048576">
+      <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13:H1048576">
       <formula1>INDIRECT($G2)</formula1>
@@ -12814,17 +12817,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13:F14 F15:F1048576">
       <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AC3 AC4 AC5 AC6 AC7 AC8 AC9 AC10 AC11 AC12 AC13:AC1048576">
-      <formula1>"未核查,已核查"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG3 AM3 AG4 AM4 AG5 AM5 AG6 AM6 AG7 AM7 AG8 AM8 AG9 AM9 AG10 AM10 AG11 AM11 AG12 AM12 AG13:AG1048576 AM13:AM1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R2 I3:R3 I4:R4 I5:R5 I6:R6 I7:R7 I8:R8 I9:R9 I10:R10 I11:R11 I12:R12 I13:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 AE2 AK2 AA3 AE3 AK3 AA4 AE4 AK4 AA5 AE5 AK5 AA6 AE6 AK6 AA7 AE7 AK7 AA8 AE8 AK8 AA9 AE9 AK9 AA10 AE10 AK10 AA11 AE11 AK11 AA12 AE12 AK12 AA13:AA14 AA15:AA1048576 AE13:AE1048576 AK13:AK1048576">
-      <formula1>"手动,自动"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG3 AM3 AG4 AM4 AG5 AM5 AG6 AM6 AG7 AM7 AG8 AM8 AG9 AM9 AG10 AM10 AG11 AM11 AG12 AM12 AG13:AG1048576 AM13:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576">
+      <formula1>INDIRECT($F14)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
